--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560325/JX560325_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560325/JX560325_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89312929194</v>
+        <v>45441.83339727204</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1469_1471insct']</t>
+          <t>['1560_1698del', '1557_1678del', '1486_1534del', '1378_1460insaaaatgtaatggactttaagcaggtgagatagcgtatagatggttattaaccgcgtagtgtgcacatgcctattctagacga', '1440_1509del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89312932087</v>
+        <v>45441.83339731835</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['252_254insag']</t>
+          <t>['252_336insccccctatacggcgtgttcttttactctgtattgtccgaagtcgacacttaaaggctctatacatttttacgcgattcagatga', '173_271del', '183_295del', '219_339insccccacgactcaccagcctatcaaaagcacaccgggcggggtcttcgtggtagtacaagcggtgttcattcccgacagaactgtgacagaccaacaatgtagaaatcttaagaaaccggc', '250_323insgtggtgcatcgcacgcaggactacgactcagttggcggagttttcgtttgactgtacgtcattgttagcgccc']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89312934979</v>
+        <v>45441.83339743593</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['5357t&gt;c']</t>
+          <t>['5365_5420del', '5334_5469del', '5376_5484del', '5366_5427del', '5280_5355del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89312937872</v>
+        <v>45441.83339746485</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1497_1498insa']</t>
+          <t>['1428_1553del', '1558_1622inscgttccataccaggttggagaaatgccagtgacggcgcacgtgaatacctgactaaagcgtgcg', '1399_1525del', '1437_1483instcgtgcggattgcgagccctataactcgctatccaatacgccgtgg', '1362_1454del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['233_237del']</t>
+          <t>['154_288del', '251_360del', '193_327insctaggtccattcttaccgataacataaagcgcctagattgcggggcgactatagcctagaggtagtgaagcactgtacaggcctacgtgacttgctgtcagcgtggacctatatcccctacggtccgccaaata', '191_326del', '236_343del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89312940188</v>
+        <v>45441.83339749381</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1557_1561insatcc']</t>
+          <t>['1424_1526instctacgatttacctgaatatttctccaatgctatcattaggctgctccccgtctagggggttgtcaaaatcatgaaagttccggatctgaagagagatcctg', '1460_1490del', '1503_1610del', '1521_1663insgtgaaaaatcctgccggattgcgagtaaaattagggacacacgaggcgaataacagatcggcaaacgaagtctgtctccccgaagtgattccgattagccaggtaagcggacttgaagtcttttgcagggacttttccagcg', '1536_1624inscatcggcggacacgctagtccttaggtcgactgaggtctggtatgtacccacgtctgattaaggcgcgattcgttatgtacagaccga']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['5345_5347insgt']</t>
+          <t>['5336_5373del', '5288_5438insgagatcaagcctcgtgtacggtctcgcctcgactagattccaggctaaggtagcagctaggcgttgtacatcggagcgtaggatacaacctggttttatgttatgaaattttagctaatcattcgctgtctagattcaagcatgctggcc', '5281_5376del', '5272_5385insgccccccagaggaccaagtgtcttatttccggaaaatgcaacttaagtatggttaggttccccgggaatgcaaacctttccttgttggcgtacggtgcgtgacataactcggt', '5337_5441insggcgtttggttcaataccatacaaacgtttaacgaggctcatataaatgcctactgcaccccgaacgtgcactgtctccgtagtgcggatcctactacggcaga']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89312942504</v>
+        <v>45441.83339752272</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['212c&gt;a']</t>
+          <t>['228_304del', '242_387del', '155_305insatttcgcctgtacaacgccccggaagttcttactgcccgctaactttggggtaggaaaacggcctatcgatagatttacgcagggcagttaggagcagtccaattacggagctctgataccctcgttcgattgtctctttgttcacaggg', '209_261insgcagtaagtgtcctgtcatgtgagcttttcatctttgtccatgcaattctac', '198_317inscgtccacttttctcggaagggggacttctgggtccgtacgtaatgattagacacataacctacacaatggttttaattcacgagtcgcaatgaagacggacagttagagacacattgac']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['5358_5358del']</t>
+          <t>['5330_5371insggagagcagttatttcgctaagaataacgagccgaatctaa', '5300_5421insatctgccctatatagtccctgccgttgccgagttaggctcgcgcatgattacgtccttgcaaggttgacgaagagaggaaccactccctggtccgttgtccagcagagtctaagctaggtc', '5353_5461insgtccctagaaaaaccgactgcaaacattgctaggcctaaggtcggggaataagtgcaggccatggtgttgggcactccaagtaagagagctttgtactgcagggcagg', '5329_5468insagttgaacagttcgacgtaactcgacactagaattttgagagctatttgttagaatctgcaggctataagtagattgcaaagacctacacaacgacacccttgctgattgccaataacttagtaccaggggaggtactt', '5302_5374insgtggtaacccacgctacctgcaccgccgttttctgcctaggggcggagtgcaatggtttctataacaacaag']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89312944818</v>
+        <v>45441.833397555</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1502_1503insa']</t>
+          <t>['1438_1528del', '1561_1676inscagcactacgggcgacgaccatcaccatgccggagtgcagcgcctaaagattcgggcaaatattctaactctgcaggttgtccatgcacactcactaaacatctcaccttcaaca', '1510_1634insacctctgtcatggggttgggagcggccggaaagatatttcgcaaggatcccgtttggagcatgaaacgaccgagcattcacgaccaccggtcattatattggttatgtcgccgccacccaactt', '1423_1465insaatcgacaacttgccgaaccgtgcctgtggggactccaattc', '1455_1510inscgggcagacattgatgtatctaaggaggctaacttcgcttacttttacgatcgat']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['233t&gt;c']</t>
+          <t>['254_384del', '197_244inscacagttgccacataagctgtcaccgcctgtcccactttcttcaatg', '246_313instgagccatcgctgcatgtcgtaagctgtgcagtaagcttccatttatgagctccgtttcactgtaag', '184_247del', '246_392instctgcgaccggtgtatcagccccagtaatgaactcgggtccgtccttctgtatggacgcagcaacaaattgaacgtacaagtcccgccgggccttaatgtcgggtcctactctagcgaagcgcatggccgatcaggagtcccgagg']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['5277_5281del']</t>
+          <t>['5364_5413del', '5373_5415del', '5295_5419del', '5364_5409insaccgaatcatgcatatcctcagatcggaacgtaccatacacgtag', '5364_5494insagatccggatccccattccatcggtcaatccaatctagtggtaataagctgatattttctgatttcctatccatcaatctggaacgacccattcccgtagtttgtagaacttactgcctcgtaaaagccc']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89312947711</v>
+        <v>45441.83339758393</v>
       </c>
     </row>
   </sheetData>
